--- a/src/physion/acquisition/DataTable.xlsx
+++ b/src/physion/acquisition/DataTable.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Recordings" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Subjects" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Analysis" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="--whatever--" sheetId="4" state="visible" r:id="rId6"/>
@@ -34,82 +34,82 @@
     <t xml:space="preserve">time</t>
   </si>
   <si>
+    <t xml:space="preserve">FOV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">force_to_visualStimTimestamps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reverse_photodiodeSignal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locomotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VisualStim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FaceMotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pupil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raw_FaceCamera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">processed_CaImaging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raw_CaImaging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_episode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lignée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acronyme lignée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sexe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. naissance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chirurgie 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. chirurgie 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chirurgie 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. chirurgie 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dilution virus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Génotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espèce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Souche</t>
+  </si>
+  <si>
     <t xml:space="preserve">recording</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">force_to_visualStimTimestamps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reverse_photodiodeSignal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locomotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VisualStim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FaceMotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pupil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raw_FaceCamera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">processed_CaImaging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raw_CaImaging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max_episode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lignée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acronyme lignée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sexe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D. naissance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chirurgie 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D. chirurgie 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chirurgie 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D. chirurgie 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dilution virus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Génotype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Espèce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Souche</t>
   </si>
 </sst>
 </file>
@@ -509,16 +509,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.84"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="17" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="19.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,47 +527,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="P1" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="7"/>
@@ -603,46 +605,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +676,7 @@
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/physion/acquisition/DataTable.xlsx
+++ b/src/physion/acquisition/DataTable.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t xml:space="preserve">subject</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">recording</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protocol</t>
   </si>
 </sst>
 </file>
@@ -120,7 +123,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -188,6 +191,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -269,7 +279,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -294,6 +304,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -302,10 +316,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
@@ -315,6 +325,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -511,67 +529,65 @@
   </sheetPr>
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.84"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="2" style="1" width="11.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="17" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="19.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="7" customFormat="true" ht="19.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="L1" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="6"/>
       <c r="P1" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="7"/>
+      <c r="D5" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -597,7 +613,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="15.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="15.92"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -663,10 +679,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -674,13 +690,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.08"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13"/>
+      <c r="A2" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/physion/acquisition/DataTable.xlsx
+++ b/src/physion/acquisition/DataTable.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\work\physion\src\physion\acquisition\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E07061-0A03-4FA3-89FA-6AB5F643C94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Recordings" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Subjects" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Analysis" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="--whatever--" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Recordings" sheetId="1" r:id="rId1"/>
+    <sheet name="Subjects" sheetId="2" r:id="rId2"/>
+    <sheet name="Analysis" sheetId="3" r:id="rId3"/>
+    <sheet name="--whatever--" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -23,107 +28,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
-  <si>
-    <t xml:space="preserve">subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">force_to_visualStimTimestamps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reverse_photodiodeSignal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locomotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VisualStim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FaceMotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pupil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raw_FaceCamera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">processed_CaImaging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raw_CaImaging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max_episode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lignée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acronyme lignée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sexe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D. naissance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chirurgie 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D. chirurgie 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chirurgie 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D. chirurgie 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dilution virus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Génotype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Espèce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Souche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recording</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protocol</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>FOV</t>
+  </si>
+  <si>
+    <t>force_to_visualStimTimestamps</t>
+  </si>
+  <si>
+    <t>reverse_photodiodeSignal</t>
+  </si>
+  <si>
+    <t>Locomotion</t>
+  </si>
+  <si>
+    <t>VisualStim</t>
+  </si>
+  <si>
+    <t>FaceMotion</t>
+  </si>
+  <si>
+    <t>Pupil</t>
+  </si>
+  <si>
+    <t>raw_FaceCamera</t>
+  </si>
+  <si>
+    <t>processed_CaImaging</t>
+  </si>
+  <si>
+    <t>raw_CaImaging</t>
+  </si>
+  <si>
+    <t>max_episode</t>
+  </si>
+  <si>
+    <t>Lignée</t>
+  </si>
+  <si>
+    <t>Acronyme lignée</t>
+  </si>
+  <si>
+    <t>Marque</t>
+  </si>
+  <si>
+    <t>Sexe</t>
+  </si>
+  <si>
+    <t>D. naissance</t>
+  </si>
+  <si>
+    <t>Chirurgie 1</t>
+  </si>
+  <si>
+    <t>D. chirurgie 1</t>
+  </si>
+  <si>
+    <t>Chirurgie 2</t>
+  </si>
+  <si>
+    <t>D. chirurgie 2</t>
+  </si>
+  <si>
+    <t>Virus</t>
+  </si>
+  <si>
+    <t>Dilution virus</t>
+  </si>
+  <si>
+    <t>Génotype</t>
+  </si>
+  <si>
+    <t>Espèce</t>
+  </si>
+  <si>
+    <t>Souche</t>
+  </si>
+  <si>
+    <t>recording</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>Npx-Rec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -131,22 +135,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FFDDDDDD"/>
       <name val="Arial"/>
@@ -154,7 +143,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FFEEEEEE"/>
       <name val="Arial"/>
@@ -182,7 +171,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FFEEEEEE"/>
       <name val="Arial"/>
@@ -196,7 +185,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -218,14 +207,14 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFA9A9A9"/>
       </left>
@@ -238,7 +227,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFA9A9A9"/>
       </left>
@@ -254,105 +243,57 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -411,62 +352,78 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -519,28 +476,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:P5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.84"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="17" style="1" width="11.53"/>
+    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="19.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -553,47 +508,47 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="8"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E5" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -601,73 +556,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="15.92"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -675,37 +626,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.08"/>
+    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -713,22 +658,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/src/physion/acquisition/DataTable.xlsx
+++ b/src/physion/acquisition/DataTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\work\physion\src\physion\acquisition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\physion\src\physion\acquisition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E07061-0A03-4FA3-89FA-6AB5F643C94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6EF13B-9B1C-4D69-891F-62E0BE4FDCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>subject</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Npx-Rec</t>
+  </si>
+  <si>
+    <t>Npx-Folder</t>
   </si>
 </sst>
 </file>
@@ -483,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -495,7 +498,7 @@
     <col min="2" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -509,41 +512,44 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E5" s="7"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
